--- a/Баг репорты по заданию - Тестируем мобильное приложение и создаем отчет по результатам тестирования.xlsx
+++ b/Баг репорты по заданию - Тестируем мобильное приложение и создаем отчет по результатам тестирования.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaming PC\Desktop\ДЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaming PC\Desktop\GitHub - my repositories (Group Jumior 11)\mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5EC06E-210A-403F-A9C7-005186A0A85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A47F0D-74AB-4976-A90C-1DCE6CB2060D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14565" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчёты о деффекте" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Issue Id</t>
   </si>
@@ -673,6 +673,181 @@
       </rPr>
       <t>: [Добавление задачи: при вводе пробела в пустое поле задача успешно добавляется и отображается в списке](https://app.qase.io/defect/G101/view/466)
 Found in test run: [Test run 2025/10/25](https://app.qase.io/run/G101/dashboard/88)</t>
+    </r>
+  </si>
+  <si>
+    <t>G11-775</t>
+  </si>
+  <si>
+    <t>Удаление: при быстром тапе на кнопку "DELETE" разных задач возникает критический сбой</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>**Environment:**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Google pixel 9 Pro, Android 16
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">**Description:**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+ошибка не всегда появляется на дисплее после принудительной остановки приложения
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">**Pre-condition:** 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Должно быть добавлено 4 задачи
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ### Steps to reproduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+* *Step 1*
+  Action: Открыть приложение shopping-list
+* *Step 2*
+  Action: Быстро тапать кнопку "DELETE" последовательно напротив каждой задачи
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ### Actual result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Приложение принудительно останавливается и сообщает об ошибке (См. логи)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  **Expected Result:**  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Задачи удаляются последовательно без ошибок. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">**Ссылка на чек-лист в гугл диск**: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;https://docs.google.com/spreadsheets/d/1XT86B-yVN48-9lB0NYbrx5OnVa8pKnkB_4TSbF_H2DI/edit?usp=sharing&gt;</t>
     </r>
   </si>
 </sst>
@@ -799,25 +974,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +993,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,272 +1403,344 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>45955</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="321" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>45955</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="11">
         <v>45955</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="11">
         <v>45955</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="213" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="11">
         <v>45955</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11">
+        <v>45955</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
+  <mergeCells count="66">
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
@@ -1504,38 +1751,25 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="J4:J6"/>
     <mergeCell ref="I4:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
